--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2771.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2771.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166282127718335</v>
+        <v>1.495728850364685</v>
       </c>
       <c r="B1">
-        <v>2.428140999812773</v>
+        <v>1.793264746665955</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.403722524642944</v>
       </c>
       <c r="D1">
-        <v>2.369760173804978</v>
+        <v>5.025171279907227</v>
       </c>
       <c r="E1">
-        <v>1.228765512678967</v>
+        <v>1.453248620033264</v>
       </c>
     </row>
   </sheetData>
